--- a/IntelliSOFT/Example CHT application/cht_pvers/forms/contact/district_hospital-create.xlsx
+++ b/IntelliSOFT/Example CHT application/cht_pvers/forms/contact/district_hospital-create.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
-  <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <definedNames/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="wji0hm1bWbHMa50/xr0iC8D0akSJ+kvfQEMnAeQP7Io="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="371">
   <si>
     <t>type</t>
   </si>
@@ -95,7 +98,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -113,19 +116,19 @@
     <t>contact_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact ID of the logged in user</t>
+    <t>Contact ID of the logged in user</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
+    <t>Place ID of the logged in user</t>
+  </si>
+  <si>
+    <t>Name of the logged in user</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>init</t>
@@ -134,28 +137,28 @@
     <t>field-list</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one contact</t>
+    <t>select_one contact</t>
   </si>
   <si>
     <t>create_new_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Set the Primary Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक कॉंटॅक्ट चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ditetapkan Sebagai Kontak Utama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weka mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact primaire</t>
+    <t>Set the Primary Contact</t>
+  </si>
+  <si>
+    <t>प्राथमिक कॉंटॅक्ट चुनें</t>
+  </si>
+  <si>
+    <t>Ditetapkan Sebagai Kontak Utama</t>
+  </si>
+  <si>
+    <t>Weka mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्ति</t>
+  </si>
+  <si>
+    <t>Contact primaire</t>
   </si>
   <si>
     <t>yes</t>
@@ -170,19 +173,19 @@
     <t>select_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Select the Primary Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Kontak Utama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua Mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisisser le contact primaire</t>
+    <t>Select the Primary Contact</t>
+  </si>
+  <si>
+    <t>Pilih Kontak Utama</t>
+  </si>
+  <si>
+    <t>Chagua Mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisisser le contact primaire</t>
   </si>
   <si>
     <t>selected(${create_new_person},'old_person')</t>
@@ -200,16 +203,16 @@
     <t>contact_name</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(../../contact/name, ../name)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one translate_name_label</t>
+    <t>coalesce(../../contact/name, ../name)</t>
+  </si>
+  <si>
+    <t>select_one translate_name_label</t>
   </si>
   <si>
     <t>custom_place_name_label_translator</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')</t>
+    <t>selected(${create_new_person},'none') or selected(${is_name_generated}, 'false')</t>
   </si>
   <si>
     <t>"name"</t>
@@ -227,31 +230,31 @@
     <t>${custom_place_name_label}</t>
   </si>
   <si>
-    <t xml:space="preserve">Standalone question only if no contact is selected, so show label accordingly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one place_type</t>
+    <t>Standalone question only if no contact is selected, so show label accordingly</t>
+  </si>
+  <si>
+    <t>select_one place_type</t>
   </si>
   <si>
     <t>place_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the name of this place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इस स्थान का नाम दर्ज करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masukkan nama tempat ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaza jina la eneo hii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">यस स्थानको नाम लेख्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de l'endroit</t>
+    <t>Enter the name of this place</t>
+  </si>
+  <si>
+    <t>इस स्थान का नाम दर्ज करें</t>
+  </si>
+  <si>
+    <t>Masukkan nama tempat ini</t>
+  </si>
+  <si>
+    <t>Jaza jina la eneo hii</t>
+  </si>
+  <si>
+    <t>यस स्थानको नाम लेख्नुहोस्</t>
+  </si>
+  <si>
+    <t>Nom de l'endroit</t>
   </si>
   <si>
     <t>PLACE_TYPE</t>
@@ -263,7 +266,7 @@
     <t>jr:choice-name(${place_type},'${place_type}')</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one generated_name</t>
+    <t>select_one generated_name</t>
   </si>
   <si>
     <t>generated_name</t>
@@ -278,19 +281,19 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">New Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नया व्यक्ति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orang Baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtu Mpya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouvelle personne</t>
+    <t>New Person</t>
+  </si>
+  <si>
+    <t>नया व्यक्ति</t>
+  </si>
+  <si>
+    <t>Orang Baru</t>
+  </si>
+  <si>
+    <t>Mtu Mpya</t>
+  </si>
+  <si>
+    <t>Nouvelle personne</t>
   </si>
   <si>
     <t>selected(${create_new_person},'new_person')</t>
@@ -305,7 +308,7 @@
     <t>person</t>
   </si>
   <si>
-    <t xml:space="preserve">Full Name</t>
+    <t>Full Name</t>
   </si>
   <si>
     <t>नाम</t>
@@ -326,19 +329,19 @@
     <t>short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Short name</t>
+    <t>Short name</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve">string-length(.) &lt;= 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short name can not be more than 10 characters long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter a short name that is preferred by the person.</t>
+    <t>string-length(.) &lt;= 10</t>
+  </si>
+  <si>
+    <t>Short name can not be more than 10 characters long.</t>
+  </si>
+  <si>
+    <t>Please enter a short name that is preferred by the person.</t>
   </si>
   <si>
     <t>date_of_birth</t>
@@ -368,13 +371,13 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t xml:space="preserve">. &lt;= now()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date must be before today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Birth</t>
+    <t>. &lt;= now()</t>
+  </si>
+  <si>
+    <t>Date must be before today</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>note</t>
@@ -398,10 +401,10 @@
     <t>Years</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be between 0 and 130</t>
+    <t>. &gt;= 0 and . &lt;= 130</t>
+  </si>
+  <si>
+    <t>Age must be between 0 and 130</t>
   </si>
   <si>
     <t>age_months</t>
@@ -410,13 +413,13 @@
     <t>Months</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months must between 0 and 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple select_dob_method</t>
+    <t>. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t>Months must between 0 and 11</t>
+  </si>
+  <si>
+    <t>select_multiple select_dob_method</t>
   </si>
   <si>
     <t>dob_method</t>
@@ -434,13 +437,13 @@
     <t>DOB</t>
   </si>
   <si>
-    <t xml:space="preserve">add-date(today(), 0-${age_years}, 0-${age_months})</t>
+    <t>add-date(today(), 0-${age_years}, 0-${age_months})</t>
   </si>
   <si>
     <t>dob_raw</t>
   </si>
   <si>
-    <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
+    <t>if(not(selected( ../dob_method,'approx')), 
 ../dob_calendar,
 ../dob_approx)</t>
   </si>
@@ -454,7 +457,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">DOB Approx: ${dob_approx}
+    <t>DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
 DOB ISO: ${dob_iso}</t>
   </si>
@@ -465,49 +468,49 @@
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya Simi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फाेन नम्बर</t>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon</t>
+  </si>
+  <si>
+    <t>Namba ya Simi</t>
+  </si>
+  <si>
+    <t>फाेन नम्बर</t>
   </si>
   <si>
     <t>Téléphone</t>
   </si>
   <si>
-    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
+    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
     <t>phone_alternate</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternate Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon Alternatif</t>
+    <t>Alternate Phone Number</t>
+  </si>
+  <si>
+    <t>अन्य फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon Alternatif</t>
   </si>
   <si>
     <t xml:space="preserve">Namba Ya </t>
   </si>
   <si>
-    <t xml:space="preserve">बैकल्पिक फाेन नम्बर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Téléphone alternatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one male_female</t>
+    <t>बैकल्पिक फाेन नम्बर</t>
+  </si>
+  <si>
+    <t>Téléphone alternatif</t>
+  </si>
+  <si>
+    <t>select_one male_female</t>
   </si>
   <si>
     <t>sex</t>
@@ -519,7 +522,7 @@
     <t>लिंग</t>
   </si>
   <si>
-    <t xml:space="preserve">Jenis kelamin</t>
+    <t>Jenis kelamin</t>
   </si>
   <si>
     <t>Jinsia</t>
@@ -528,7 +531,7 @@
     <t>Sexe</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one roles</t>
+    <t>select_one roles</t>
   </si>
   <si>
     <t>role</t>
@@ -543,7 +546,7 @@
     <t>Peran</t>
   </si>
   <si>
-    <t xml:space="preserve">Namba ya simu Nyingine</t>
+    <t>Namba ya simu Nyingine</t>
   </si>
   <si>
     <t>भुमिका</t>
@@ -555,46 +558,46 @@
     <t>role_other</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य का उल्‍लेख करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tentukan lainnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fafanua vingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
+    <t>Specify other</t>
+  </si>
+  <si>
+    <t>अन्य का उल्‍लेख करें</t>
+  </si>
+  <si>
+    <t>Tentukan lainnya</t>
+  </si>
+  <si>
+    <t>Fafanua vingine</t>
+  </si>
+  <si>
+    <t>अन्य उल्लेख गर्नुहोस्</t>
   </si>
   <si>
     <t>Specifier</t>
   </si>
   <si>
-    <t xml:space="preserve">selected( ${role},'other')</t>
+    <t>selected( ${role},'other')</t>
   </si>
   <si>
     <t>external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">External ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहरी ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eksternal ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitambulisho cha nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहिरि ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant externe</t>
+    <t>External ID</t>
+  </si>
+  <si>
+    <t>बाहरी ID</t>
+  </si>
+  <si>
+    <t>Eksternal ID</t>
+  </si>
+  <si>
+    <t>Kitambulisho cha nje</t>
+  </si>
+  <si>
+    <t>बाहिरि ID</t>
+  </si>
+  <si>
+    <t>Identifiant externe</t>
   </si>
   <si>
     <t>Notes</t>
@@ -636,28 +639,28 @@
     <t>../../../inputs/user/facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one yes_no_generated_name</t>
+    <t>select_one yes_no_generated_name</t>
   </si>
   <si>
     <t>is_name_generated</t>
   </si>
   <si>
-    <t xml:space="preserve">Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
+    <t>Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
+  </si>
+  <si>
+    <t>Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
+  </si>
+  <si>
+    <t>के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
+  </si>
+  <si>
+    <t>Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
   </si>
   <si>
     <t>not(selected(${create_new_person},'none'))</t>
@@ -669,19 +672,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
+    <t>if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
+  </si>
+  <si>
+    <t>Namba ya nje</t>
+  </si>
+  <si>
+    <t>if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
   </si>
   <si>
     <t>geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
+    <t>concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
   </si>
   <si>
     <t>list_name</t>
@@ -777,64 +780,64 @@
     <t>new_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a new person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक नया व्यक्ति बनाएं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buat orang baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongeza mtumizi mpya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक नया व्यक्ति बनाउनुस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer une nouvelle personne</t>
+    <t>Create a new person</t>
+  </si>
+  <si>
+    <t>एक नया व्यक्ति बनाएं</t>
+  </si>
+  <si>
+    <t>Buat orang baru</t>
+  </si>
+  <si>
+    <t>Ongeza mtumizi mpya</t>
+  </si>
+  <si>
+    <t>एक नया व्यक्ति बनाउनुस</t>
+  </si>
+  <si>
+    <t>Créer une nouvelle personne</t>
   </si>
   <si>
     <t>old_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Select an existing person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मौजूदा व्यक्ति चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih orang yang ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua mtumizi aliyesajlishwa apo awali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selectiionner une personne existant</t>
+    <t>Select an existing person</t>
+  </si>
+  <si>
+    <t>मौजूदा व्यक्ति चुनें</t>
+  </si>
+  <si>
+    <t>Pilih orang yang ada</t>
+  </si>
+  <si>
+    <t>Chagua mtumizi aliyesajlishwa apo awali</t>
+  </si>
+  <si>
+    <t>व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t>Selectiionner une personne existant</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">Skip this step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इस स्टेप को छोड़ दें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewati langkah ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruka hatua ii</t>
+    <t>Skip this step</t>
+  </si>
+  <si>
+    <t>इस स्टेप को छोड़ दें</t>
+  </si>
+  <si>
+    <t>Lewati langkah ini</t>
+  </si>
+  <si>
+    <t>Ruka hatua ii</t>
   </si>
   <si>
     <t xml:space="preserve">एख </t>
   </si>
   <si>
-    <t xml:space="preserve">Sauter cette section</t>
+    <t>Sauter cette section</t>
   </si>
   <si>
     <t>select_dob_method</t>
@@ -843,7 +846,7 @@
     <t>approx</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of birth unknown</t>
+    <t>Date of birth unknown</t>
   </si>
   <si>
     <t>roles</t>
@@ -855,16 +858,16 @@
     <t>CHW</t>
   </si>
   <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
+    <t>सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
     <t>Kader</t>
   </si>
   <si>
-    <t xml:space="preserve">Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
+    <t>Mhudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
     <t>ASC</t>
@@ -873,22 +876,22 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kader Pengawas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superviseur ASC</t>
+    <t>CHW Supervisor</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
+  </si>
+  <si>
+    <t>Kader Pengawas</t>
+  </si>
+  <si>
+    <t>Mkuu wa wahudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
+  </si>
+  <si>
+    <t>Superviseur ASC</t>
   </si>
   <si>
     <t>nurse</t>
@@ -912,22 +915,22 @@
     <t>manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Facility Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र के मैनजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manajer Fasilitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meneja wa Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य सस्था प्रमुख</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff médical</t>
+    <t>Facility Manager</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केंद्र के मैनजर</t>
+  </si>
+  <si>
+    <t>Manajer Fasilitas</t>
+  </si>
+  <si>
+    <t>Meneja wa Kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य सस्था प्रमुख</t>
+  </si>
+  <si>
+    <t>Staff médical</t>
   </si>
   <si>
     <t>patient</t>
@@ -972,28 +975,28 @@
     <t>हो</t>
   </si>
   <si>
-    <t xml:space="preserve">No, I want to name it manually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidak, saya ingin nama itu secara manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapana, ningependa kuijaza mwenyewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">होइन, म आफैँ नाम दिन चाहन्छु</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non, je veux nommer ça manuellement</t>
+    <t>No, I want to name it manually</t>
+  </si>
+  <si>
+    <t>नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
+  </si>
+  <si>
+    <t>Tidak, saya ingin nama itu secara manual</t>
+  </si>
+  <si>
+    <t>Hapana, ningependa kuijaza mwenyewe</t>
+  </si>
+  <si>
+    <t>होइन, म आफैँ नाम दिन चाहन्छु</t>
+  </si>
+  <si>
+    <t>Non, je veux nommer ça manuellement</t>
   </si>
   <si>
     <t>district_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Facility</t>
+    <t>Health Facility</t>
   </si>
   <si>
     <t>ज़िला</t>
@@ -1017,19 +1020,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé</t>
+    <t>स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t>Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t>Kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé</t>
   </si>
   <si>
     <t>clinic</t>
@@ -1050,58 +1053,58 @@
     <t>Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">${contact_name}'s Health Facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का ज़िला</t>
+    <t>${contact_name}'s Health Facility</t>
+  </si>
+  <si>
+    <t>${contact_name} का ज़िला</t>
   </si>
   <si>
     <t xml:space="preserve">Kabupaten ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">WIlaya ya  ${contact_name}</t>
+    <t>WIlaya ya  ${contact_name}</t>
   </si>
   <si>
     <t xml:space="preserve">${contact_name}को जिल्ला </t>
   </si>
   <si>
-    <t xml:space="preserve">District de ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}'s Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का स्वास्थ्य केंद्र</t>
+    <t>District de ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Area</t>
+  </si>
+  <si>
+    <t>${contact_name} का स्वास्थ्य केंद्र</t>
   </si>
   <si>
     <t xml:space="preserve">Fasilitas Kesehatan ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">Kituo cha afya cha  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé de ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}'s Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का क्षेत्र</t>
+    <t>Kituo cha afya cha  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé de ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Household</t>
+  </si>
+  <si>
+    <t>${contact_name} का क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">Eneo ya  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को क्षेत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone de ${contact_name}</t>
+    <t>Eneo ya  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को क्षेत्र</t>
+  </si>
+  <si>
+    <t>Zone de ${contact_name}</t>
   </si>
   <si>
     <t>translate_name_label</t>
@@ -1122,7 +1125,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">New PLACE_NAME</t>
+    <t>New Health Facility</t>
   </si>
   <si>
     <t>contact:PLACE_TYPE:create</t>
@@ -1137,29 +1140,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="10.000000"/>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1167,183 +1170,177 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
+        <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFD0E0E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="65"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6FA8DC"/>
-        <bgColor indexed="55"/>
+        <bgColor rgb="FF6FA8DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="32">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -1367,77 +1364,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1449,274 +1388,90 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
-  <a:themeElements>
-    <a:clrScheme name="">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="">
-      <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill/>
-        <a:solidFill/>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-        </a:ln>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1727,57 +1482,84 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="P39" activeCellId="0" sqref="P39"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="34"/>
-    <col customWidth="1" min="2" max="2" style="0" width="22.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="47.859999999999999"/>
-    <col customWidth="1" min="4" max="4" style="0" width="33.43"/>
-    <col customWidth="1" min="5" max="5" style="0" width="27.43"/>
-    <col customWidth="1" min="6" max="6" style="0" width="37.289999999999999"/>
-    <col customWidth="1" min="7" max="7" style="0" width="31.289999999999999"/>
-    <col customWidth="1" min="8" max="8" style="0" width="8.1400000000000006"/>
-    <col customWidth="1" min="9" max="9" style="0" width="16.710000000000001"/>
-    <col customWidth="1" min="10" max="10" style="0" width="8.1400000000000006"/>
-    <col customWidth="1" min="11" max="11" style="0" width="51.43"/>
-    <col customWidth="1" min="12" max="13" style="0" width="10.710000000000001"/>
-    <col customWidth="1" min="14" max="14" style="0" width="25.300000000000001"/>
-    <col customWidth="1" min="15" max="15" style="0" width="46.289999999999999"/>
-    <col customWidth="1" min="16" max="16" style="0" width="68.849999999999994"/>
-    <col customWidth="1" min="17" max="17" style="0" width="9.4299999999999997"/>
-    <col customWidth="1" min="18" max="18" style="0" width="33.43"/>
-    <col customWidth="1" min="19" max="19" style="0" width="36.289999999999999"/>
-    <col customWidth="1" min="20" max="23" style="0" width="13.57"/>
-    <col customWidth="1" min="24" max="24" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="25" max="25" style="0" width="8.6999999999999993"/>
-    <col customWidth="1" min="26" max="26" style="0" width="35.850000000000001"/>
-    <col customWidth="1" min="27" max="36" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="37" max="38" style="0" width="15.140000000000001"/>
-    <col customWidth="1" min="39" max="44" style="0" width="17.289999999999999"/>
+    <col customWidth="1" min="1" max="1" width="34.0"/>
+    <col customWidth="1" min="2" max="2" width="22.71"/>
+    <col customWidth="1" min="3" max="3" width="47.86"/>
+    <col customWidth="1" min="4" max="4" width="33.43"/>
+    <col customWidth="1" min="5" max="5" width="27.43"/>
+    <col customWidth="1" min="6" max="6" width="37.29"/>
+    <col customWidth="1" min="7" max="7" width="31.29"/>
+    <col customWidth="1" min="8" max="8" width="8.14"/>
+    <col customWidth="1" min="9" max="9" width="16.71"/>
+    <col customWidth="1" min="10" max="10" width="8.14"/>
+    <col customWidth="1" min="11" max="11" width="51.43"/>
+    <col customWidth="1" min="12" max="13" width="10.71"/>
+    <col customWidth="1" min="14" max="14" width="25.29"/>
+    <col customWidth="1" min="15" max="15" width="46.29"/>
+    <col customWidth="1" min="16" max="16" width="68.86"/>
+    <col customWidth="1" min="17" max="17" width="9.43"/>
+    <col customWidth="1" min="18" max="18" width="33.43"/>
+    <col customWidth="1" min="19" max="19" width="36.29"/>
+    <col customWidth="1" min="20" max="23" width="13.57"/>
+    <col customWidth="1" min="24" max="24" width="7.71"/>
+    <col customWidth="1" min="25" max="25" width="8.71"/>
+    <col customWidth="1" min="26" max="26" width="35.86"/>
+    <col customWidth="1" min="27" max="36" width="7.71"/>
+    <col customWidth="1" min="37" max="38" width="15.14"/>
+    <col customWidth="1" min="39" max="44" width="17.29"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1899,7 +1681,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="10">
+      <c r="K2" s="10" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1937,7 +1719,7 @@
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
     </row>
-    <row r="3" ht="15">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -2191,7 +1973,7 @@
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10"/>
     </row>
-    <row r="7" ht="15">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2525,7 +2307,7 @@
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16"/>
     </row>
-    <row r="13" ht="15">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
@@ -3241,7 +3023,7 @@
       <c r="G25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3305,7 +3087,7 @@
       <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3443,7 +3225,7 @@
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="20" t="s">
+      <c r="R28" s="19" t="s">
         <v>107</v>
       </c>
       <c r="S28" s="16"/>
@@ -3480,7 +3262,7 @@
       <c r="B29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -3534,7 +3316,7 @@
       <c r="B30" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="18"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -3589,20 +3371,20 @@
       <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="16"/>
+      <c r="I31" s="16" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="16"/>
@@ -3665,7 +3447,7 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>117</v>
       </c>
       <c r="O32" s="16" t="s">
@@ -4003,7 +3785,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="20" t="s">
         <v>141</v>
       </c>
       <c r="Q38" s="16"/>
@@ -4096,7 +3878,7 @@
       <c r="B40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="20" t="s">
         <v>145</v>
       </c>
       <c r="D40" s="18"/>
@@ -4224,8 +4006,8 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="23" t="b">
-        <f t="shared" ref="N42:N43" si="0">TRUE()</f>
+      <c r="N42" s="21" t="b">
+        <f t="shared" ref="N42:N43" si="1">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O42" s="16" t="s">
@@ -4293,8 +4075,8 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="23" t="b">
-        <f t="shared" si="0"/>
+      <c r="N43" s="21" t="b">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O43" s="16" t="s">
@@ -5069,7 +4851,7 @@
       <c r="AR56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -5133,7 +4915,7 @@
       <c r="AR57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="17" t="s">
@@ -5297,7 +5079,7 @@
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="22"/>
+      <c r="O60" s="20"/>
       <c r="P60" s="16" t="s">
         <v>216</v>
       </c>
@@ -5876,46 +5658,974 @@
       <c r="AQ70" s="16"/>
       <c r="AR70" s="16"/>
     </row>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="21.149999999999999"/>
-    <col customWidth="1" min="3" max="3" style="0" width="29"/>
-    <col customWidth="1" min="4" max="4" style="0" width="36.289999999999999"/>
-    <col customWidth="1" min="5" max="5" style="0" width="27.300000000000001"/>
-    <col customWidth="1" min="6" max="7" style="0" width="24.710000000000001"/>
-    <col customWidth="1" min="8" max="8" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="9" max="9" style="0" width="14.289999999999999"/>
-    <col customWidth="1" min="10" max="13" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="14" max="26" style="0" width="15.140000000000001"/>
+    <col customWidth="1" min="1" max="1" width="21.14"/>
+    <col customWidth="1" min="2" max="2" width="14.43"/>
+    <col customWidth="1" min="3" max="3" width="29.0"/>
+    <col customWidth="1" min="4" max="4" width="36.29"/>
+    <col customWidth="1" min="5" max="5" width="27.29"/>
+    <col customWidth="1" min="6" max="7" width="24.71"/>
+    <col customWidth="1" min="8" max="8" width="7.71"/>
+    <col customWidth="1" min="9" max="9" width="14.29"/>
+    <col customWidth="1" min="10" max="13" width="7.71"/>
+    <col customWidth="1" min="14" max="26" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5955,29 +6665,29 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="11" t="s">
         <v>224</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
         <v>228</v>
       </c>
       <c r="J2" s="8"/>
@@ -5999,29 +6709,29 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="11" t="s">
         <v>231</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>235</v>
       </c>
       <c r="J3" s="8"/>
@@ -6043,29 +6753,29 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>243</v>
       </c>
       <c r="J4" s="8"/>
@@ -6087,29 +6797,29 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
         <v>250</v>
       </c>
       <c r="J5" s="8"/>
@@ -6131,29 +6841,29 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
         <v>257</v>
       </c>
       <c r="J6" s="8"/>
@@ -6175,29 +6885,29 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>264</v>
       </c>
       <c r="J7" s="8"/>
@@ -6219,29 +6929,29 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
         <v>271</v>
       </c>
       <c r="J8" s="8"/>
@@ -6266,18 +6976,18 @@
       <c r="A9" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="19"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -6300,26 +7010,26 @@
       <c r="A10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
         <v>282</v>
       </c>
       <c r="J10" s="8"/>
@@ -6344,26 +7054,26 @@
       <c r="A11" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="19" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
         <v>289</v>
       </c>
       <c r="J11" s="8"/>
@@ -6388,26 +7098,26 @@
       <c r="A12" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="19" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
         <v>295</v>
       </c>
       <c r="J12" s="8"/>
@@ -6432,26 +7142,26 @@
       <c r="A13" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="19" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
         <v>302</v>
       </c>
       <c r="J13" s="8"/>
@@ -6482,20 +7192,20 @@
       <c r="C14" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
         <v>304</v>
       </c>
       <c r="J14" s="8"/>
@@ -6520,26 +7230,26 @@
       <c r="A15" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="19" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
         <v>314</v>
       </c>
       <c r="J15" s="8"/>
@@ -6561,29 +7271,29 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="11" t="s">
         <v>224</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
         <v>228</v>
       </c>
       <c r="J16" s="8"/>
@@ -6605,29 +7315,29 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="19" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="16" t="s">
         <v>322</v>
       </c>
       <c r="J17" s="8"/>
@@ -6652,26 +7362,26 @@
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="15"/>
+      <c r="I18" s="16" t="s">
         <v>329</v>
       </c>
       <c r="J18" s="8"/>
@@ -6696,26 +7406,26 @@
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19" t="s">
+      <c r="H19" s="15"/>
+      <c r="I19" s="16" t="s">
         <v>336</v>
       </c>
       <c r="J19" s="8"/>
@@ -6740,26 +7450,26 @@
       <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="19" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="16" t="s">
         <v>342</v>
       </c>
       <c r="J20" s="8"/>
@@ -6784,26 +7494,26 @@
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="19" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="16" t="s">
         <v>348</v>
       </c>
       <c r="J21" s="8"/>
@@ -6828,26 +7538,26 @@
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="19" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="16" t="s">
         <v>354</v>
       </c>
       <c r="J22" s="8"/>
@@ -6872,26 +7582,26 @@
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="19" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="16" t="s">
         <v>360</v>
       </c>
       <c r="J23" s="8"/>
@@ -6913,29 +7623,29 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="19" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="16" t="s">
         <v>100</v>
       </c>
       <c r="J24" s="8"/>
@@ -6956,36 +7666,1008 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="28.140000000000001"/>
-    <col customWidth="1" min="2" max="2" style="0" width="12.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="19"/>
-    <col customWidth="1" min="4" max="4" style="0" width="5.7000000000000002"/>
-    <col customWidth="1" min="5" max="5" style="0" width="14.289999999999999"/>
-    <col customWidth="1" min="6" max="6" style="0" width="34"/>
-    <col customWidth="1" min="7" max="14" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="15" max="25" style="0" width="15.140000000000001"/>
-    <col customWidth="1" min="26" max="26" style="0" width="17.289999999999999"/>
+    <col customWidth="1" min="1" max="1" width="28.14"/>
+    <col customWidth="1" min="2" max="2" width="12.71"/>
+    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col customWidth="1" min="4" max="4" width="5.71"/>
+    <col customWidth="1" min="5" max="5" width="14.29"/>
+    <col customWidth="1" min="6" max="6" width="34.0"/>
+    <col customWidth="1" min="7" max="14" width="7.71"/>
+    <col customWidth="1" min="15" max="25" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -7026,15 +8708,15 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="30" t="s">
         <v>367</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="37" t="str">
-        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-26 12-17</v>
+      <c r="C2" s="31" t="str">
+        <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v>2023-06-14_04-11</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>369</v>
@@ -12949,790 +14631,790 @@
       <c r="X220" s="8"/>
       <c r="Y220" s="8"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/IntelliSOFT/Example CHT application/cht_pvers/forms/contact/district_hospital-create.xlsx
+++ b/IntelliSOFT/Example CHT application/cht_pvers/forms/contact/district_hospital-create.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="wji0hm1bWbHMa50/xr0iC8D0akSJ+kvfQEMnAeQP7Io="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="dVtAqyCBbfB6eCulUHJ67md3Q2MdQMpRtNakpPsC/kA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="297">
   <si>
     <t>type</t>
   </si>
@@ -29,24 +29,9 @@
     <t>label::en</t>
   </si>
   <si>
-    <t>label::hi</t>
-  </si>
-  <si>
-    <t>label::id</t>
-  </si>
-  <si>
     <t>label::sw</t>
   </si>
   <si>
-    <t>label::ne</t>
-  </si>
-  <si>
-    <t>label::es</t>
-  </si>
-  <si>
-    <t>label::fr</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -146,21 +131,9 @@
     <t>Set the Primary Contact</t>
   </si>
   <si>
-    <t>प्राथमिक कॉंटॅक्ट चुनें</t>
-  </si>
-  <si>
-    <t>Ditetapkan Sebagai Kontak Utama</t>
-  </si>
-  <si>
     <t>Weka mwasiliwa mkuu</t>
   </si>
   <si>
-    <t>प्राथमिक सम्पर्क व्यक्ति</t>
-  </si>
-  <si>
-    <t>Contact primaire</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -176,18 +149,9 @@
     <t>Select the Primary Contact</t>
   </si>
   <si>
-    <t>Pilih Kontak Utama</t>
-  </si>
-  <si>
     <t>Chagua Mwasiliwa mkuu</t>
   </si>
   <si>
-    <t>प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t>Choisisser le contact primaire</t>
-  </si>
-  <si>
     <t>selected(${create_new_person},'old_person')</t>
   </si>
   <si>
@@ -242,21 +206,9 @@
     <t>Enter the name of this place</t>
   </si>
   <si>
-    <t>इस स्थान का नाम दर्ज करें</t>
-  </si>
-  <si>
-    <t>Masukkan nama tempat ini</t>
-  </si>
-  <si>
     <t>Jaza jina la eneo hii</t>
   </si>
   <si>
-    <t>यस स्थानको नाम लेख्नुहोस्</t>
-  </si>
-  <si>
-    <t>Nom de l'endroit</t>
-  </si>
-  <si>
     <t>PLACE_TYPE</t>
   </si>
   <si>
@@ -284,18 +236,9 @@
     <t>New Person</t>
   </si>
   <si>
-    <t>नया व्यक्ति</t>
-  </si>
-  <si>
-    <t>Orang Baru</t>
-  </si>
-  <si>
     <t>Mtu Mpya</t>
   </si>
   <si>
-    <t>Nouvelle personne</t>
-  </si>
-  <si>
     <t>selected(${create_new_person},'new_person')</t>
   </si>
   <si>
@@ -311,16 +254,7 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>नाम</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
     <t>Jina</t>
-  </si>
-  <si>
-    <t>Nom</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -471,21 +405,9 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>फोन नंबर</t>
-  </si>
-  <si>
-    <t>Nomor Telepon</t>
-  </si>
-  <si>
     <t>Namba ya Simi</t>
   </si>
   <si>
-    <t>फाेन नम्बर</t>
-  </si>
-  <si>
-    <t>Téléphone</t>
-  </si>
-  <si>
     <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
@@ -495,21 +417,9 @@
     <t>Alternate Phone Number</t>
   </si>
   <si>
-    <t>अन्य फोन नंबर</t>
-  </si>
-  <si>
-    <t>Nomor Telepon Alternatif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Namba Ya </t>
   </si>
   <si>
-    <t>बैकल्पिक फाेन नम्बर</t>
-  </si>
-  <si>
-    <t>Téléphone alternatif</t>
-  </si>
-  <si>
     <t>select_one male_female</t>
   </si>
   <si>
@@ -519,18 +429,9 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>लिंग</t>
-  </si>
-  <si>
-    <t>Jenis kelamin</t>
-  </si>
-  <si>
     <t>Jinsia</t>
   </si>
   <si>
-    <t>Sexe</t>
-  </si>
-  <si>
     <t>select_one roles</t>
   </si>
   <si>
@@ -540,81 +441,24 @@
     <t>Role</t>
   </si>
   <si>
-    <t>भूमिका</t>
-  </si>
-  <si>
-    <t>Peran</t>
-  </si>
-  <si>
     <t>Namba ya simu Nyingine</t>
   </si>
   <si>
-    <t>भुमिका</t>
-  </si>
-  <si>
-    <t>Rôle</t>
-  </si>
-  <si>
-    <t>role_other</t>
-  </si>
-  <si>
-    <t>Specify other</t>
-  </si>
-  <si>
-    <t>अन्य का उल्‍लेख करें</t>
-  </si>
-  <si>
-    <t>Tentukan lainnya</t>
-  </si>
-  <si>
-    <t>Fafanua vingine</t>
-  </si>
-  <si>
-    <t>अन्य उल्लेख गर्नुहोस्</t>
-  </si>
-  <si>
-    <t>Specifier</t>
-  </si>
-  <si>
-    <t>selected( ${role},'other')</t>
-  </si>
-  <si>
     <t>external_id</t>
   </si>
   <si>
     <t>External ID</t>
   </si>
   <si>
-    <t>बाहरी ID</t>
-  </si>
-  <si>
-    <t>Eksternal ID</t>
-  </si>
-  <si>
     <t>Kitambulisho cha nje</t>
   </si>
   <si>
-    <t>बाहिरि ID</t>
-  </si>
-  <si>
-    <t>Identifiant externe</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>नोट्स</t>
-  </si>
-  <si>
-    <t>Catatan</t>
-  </si>
-  <si>
     <t>Maelezo</t>
   </si>
   <si>
-    <t>टिप्पणि</t>
-  </si>
-  <si>
     <t>multiline</t>
   </si>
   <si>
@@ -648,21 +492,9 @@
     <t>Would you like to name the place after the primary contact: "${generated_name_translation}"?</t>
   </si>
   <si>
-    <t>क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे?: ${generated_name_translation}</t>
-  </si>
-  <si>
-    <t>Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name_translation}"?</t>
-  </si>
-  <si>
     <t>Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name_translation}"?</t>
   </si>
   <si>
-    <t>के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ?:${generated_name_translation}</t>
-  </si>
-  <si>
-    <t>Voulez-vous nommer l'endroit: "${generated_name_translation}"?</t>
-  </si>
-  <si>
     <t>not(selected(${create_new_person},'none'))</t>
   </si>
   <si>
@@ -690,6 +522,21 @@
     <t>list_name</t>
   </si>
   <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -852,48 +699,6 @@
     <t>roles</t>
   </si>
   <si>
-    <t>chw</t>
-  </si>
-  <si>
-    <t>CHW</t>
-  </si>
-  <si>
-    <t>सामुदायिक स्वास्थ्य कर्मी</t>
-  </si>
-  <si>
-    <t>Kader</t>
-  </si>
-  <si>
-    <t>Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
-  </si>
-  <si>
-    <t>ASC</t>
-  </si>
-  <si>
-    <t>chw_supervisor</t>
-  </si>
-  <si>
-    <t>CHW Supervisor</t>
-  </si>
-  <si>
-    <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t>Kader Pengawas</t>
-  </si>
-  <si>
-    <t>Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t>Superviseur ASC</t>
-  </si>
-  <si>
     <t>nurse</t>
   </si>
   <si>
@@ -933,42 +738,6 @@
     <t>Staff médical</t>
   </si>
   <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मरीज़ </t>
-  </si>
-  <si>
-    <t>Pasien</t>
-  </si>
-  <si>
-    <t>Mgonjwa</t>
-  </si>
-  <si>
-    <t>बिरामी</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>अन्य</t>
-  </si>
-  <si>
-    <t>Lain</t>
-  </si>
-  <si>
-    <t>Nyingine</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
     <t>yes_no_generated_name</t>
   </si>
   <si>
@@ -1108,6 +877,15 @@
   </si>
   <si>
     <t>translate_name_label</t>
+  </si>
+  <si>
+    <t>नाम</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Nom</t>
   </si>
   <si>
     <t>form_title</t>
@@ -1174,6 +952,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
@@ -1182,12 +966,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1250,13 +1028,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
@@ -1280,6 +1058,9 @@
     <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1289,7 +1070,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -1301,9 +1082,6 @@
     </xf>
     <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -1538,28 +1316,23 @@
     <col customWidth="1" min="1" max="1" width="34.0"/>
     <col customWidth="1" min="2" max="2" width="22.71"/>
     <col customWidth="1" min="3" max="3" width="47.86"/>
-    <col customWidth="1" min="4" max="4" width="33.43"/>
-    <col customWidth="1" min="5" max="5" width="27.43"/>
-    <col customWidth="1" min="6" max="6" width="37.29"/>
-    <col customWidth="1" min="7" max="7" width="31.29"/>
-    <col customWidth="1" min="8" max="8" width="8.14"/>
-    <col customWidth="1" min="9" max="9" width="16.71"/>
-    <col customWidth="1" min="10" max="10" width="8.14"/>
-    <col customWidth="1" min="11" max="11" width="51.43"/>
-    <col customWidth="1" min="12" max="13" width="10.71"/>
-    <col customWidth="1" min="14" max="14" width="25.29"/>
-    <col customWidth="1" min="15" max="15" width="46.29"/>
-    <col customWidth="1" min="16" max="16" width="68.86"/>
-    <col customWidth="1" min="17" max="17" width="9.43"/>
-    <col customWidth="1" min="18" max="18" width="33.43"/>
-    <col customWidth="1" min="19" max="19" width="36.29"/>
-    <col customWidth="1" min="20" max="23" width="13.57"/>
-    <col customWidth="1" min="24" max="24" width="7.71"/>
-    <col customWidth="1" min="25" max="25" width="8.71"/>
-    <col customWidth="1" min="26" max="26" width="35.86"/>
-    <col customWidth="1" min="27" max="36" width="7.71"/>
-    <col customWidth="1" min="37" max="38" width="15.14"/>
-    <col customWidth="1" min="39" max="44" width="17.29"/>
+    <col customWidth="1" min="4" max="4" width="37.29"/>
+    <col customWidth="1" min="5" max="5" width="8.14"/>
+    <col customWidth="1" min="6" max="6" width="51.43"/>
+    <col customWidth="1" min="7" max="8" width="10.71"/>
+    <col customWidth="1" min="9" max="9" width="25.29"/>
+    <col customWidth="1" min="10" max="10" width="46.29"/>
+    <col customWidth="1" min="11" max="11" width="68.86"/>
+    <col customWidth="1" min="12" max="12" width="9.43"/>
+    <col customWidth="1" min="13" max="13" width="33.43"/>
+    <col customWidth="1" min="14" max="14" width="36.29"/>
+    <col customWidth="1" min="15" max="18" width="13.57"/>
+    <col customWidth="1" min="19" max="19" width="7.71"/>
+    <col customWidth="1" min="20" max="20" width="8.71"/>
+    <col customWidth="1" min="21" max="21" width="35.86"/>
+    <col customWidth="1" min="22" max="31" width="7.71"/>
+    <col customWidth="1" min="32" max="33" width="15.14"/>
+    <col customWidth="1" min="34" max="39" width="17.29"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1575,19 +1348,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1602,45 +1375,35 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
@@ -1648,43 +1411,30 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="b">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -1713,38 +1463,25 @@
       <c r="AK2" s="10"/>
       <c r="AL2" s="10"/>
       <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -1775,38 +1512,25 @@
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
       <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -1818,14 +1542,14 @@
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="U4" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
@@ -1839,38 +1563,25 @@
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -1882,14 +1593,14 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="U5" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
@@ -1903,38 +1614,25 @@
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
       <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -1946,14 +1644,14 @@
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
+      <c r="U6" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
@@ -1967,15 +1665,10 @@
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -2015,15 +1708,10 @@
       <c r="AK7" s="10"/>
       <c r="AL7" s="10"/>
       <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -2063,37 +1751,32 @@
       <c r="AK8" s="10"/>
       <c r="AL8" s="10"/>
       <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="16"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -2103,43 +1786,30 @@
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -2167,45 +1837,32 @@
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
@@ -2233,47 +1890,34 @@
       <c r="AK11" s="16"/>
       <c r="AL11" s="16"/>
       <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="16"/>
-      <c r="AR11" s="16"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
@@ -2301,43 +1945,30 @@
       <c r="AK12" s="16"/>
       <c r="AL12" s="16"/>
       <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="16"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
@@ -2365,18 +1996,13 @@
       <c r="AK13" s="16"/>
       <c r="AL13" s="16"/>
       <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
-      <c r="AR13" s="16"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -2386,14 +2012,14 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="18" t="s">
-        <v>61</v>
-      </c>
+      <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
@@ -2417,51 +2043,38 @@
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="16"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="16"/>
       <c r="F15" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
-      <c r="P15" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -2485,35 +2098,30 @@
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
       <c r="AM15" s="16"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="16"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="16"/>
-      <c r="AR15" s="16"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
@@ -2537,44 +2145,31 @@
       <c r="AK16" s="16"/>
       <c r="AL16" s="16"/>
       <c r="AM16" s="16"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="16"/>
-      <c r="AP16" s="16"/>
-      <c r="AQ16" s="16"/>
-      <c r="AR16" s="16"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>69</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -2584,14 +2179,14 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
+      <c r="U17" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
-      <c r="Z17" s="16" t="s">
-        <v>70</v>
-      </c>
+      <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
@@ -2605,58 +2200,45 @@
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
       <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="16"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>76</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H18" s="16"/>
-      <c r="I18" s="16" t="s">
-        <v>78</v>
-      </c>
+      <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="18"/>
+      <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
+      <c r="T18" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
-      <c r="Y18" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
       <c r="AB18" s="16"/>
@@ -2671,18 +2253,13 @@
       <c r="AK18" s="16"/>
       <c r="AL18" s="16"/>
       <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="16"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2692,14 +2269,14 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="K19" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
@@ -2723,43 +2300,30 @@
       <c r="AK19" s="16"/>
       <c r="AL19" s="16"/>
       <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="16"/>
-      <c r="AP19" s="16"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="16"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
@@ -2767,14 +2331,14 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
+      <c r="T20" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
-      <c r="Y20" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
@@ -2789,18 +2353,13 @@
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="16"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -2810,14 +2369,14 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
@@ -2841,15 +2400,10 @@
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
-      <c r="AN21" s="16"/>
-      <c r="AO21" s="16"/>
-      <c r="AP21" s="16"/>
-      <c r="AQ21" s="16"/>
-      <c r="AR21" s="16"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="16"/>
@@ -2889,37 +2443,32 @@
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
       <c r="AM22" s="16"/>
-      <c r="AN22" s="16"/>
-      <c r="AO22" s="16"/>
-      <c r="AP22" s="16"/>
-      <c r="AQ22" s="16"/>
-      <c r="AR22" s="16"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="16"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -2929,45 +2478,32 @@
       <c r="AE23" s="8"/>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>89</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E24" s="16"/>
       <c r="F24" s="16" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="H24" s="16"/>
-      <c r="I24" s="16" t="s">
-        <v>91</v>
-      </c>
+      <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
@@ -2995,38 +2531,25 @@
       <c r="AK24" s="16"/>
       <c r="AL24" s="16"/>
       <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="17" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
@@ -3037,14 +2560,14 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
+      <c r="T25" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
       <c r="AA25" s="16"/>
       <c r="AB25" s="16"/>
@@ -3059,38 +2582,25 @@
       <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
       <c r="AM25" s="16"/>
-      <c r="AN25" s="16"/>
-      <c r="AO25" s="16"/>
-      <c r="AP25" s="16"/>
-      <c r="AQ25" s="16"/>
-      <c r="AR25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -3101,14 +2611,14 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
+      <c r="T26" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
-      <c r="Y26" s="16" t="s">
-        <v>95</v>
-      </c>
+      <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
       <c r="AB26" s="16"/>
@@ -3123,47 +2633,34 @@
       <c r="AK26" s="16"/>
       <c r="AL26" s="16"/>
       <c r="AM26" s="16"/>
-      <c r="AN26" s="16"/>
-      <c r="AO26" s="16"/>
-      <c r="AP26" s="16"/>
-      <c r="AQ26" s="16"/>
-      <c r="AR26" s="16"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>97</v>
+        <v>77</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>97</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="16" t="s">
-        <v>101</v>
-      </c>
+      <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -3189,45 +2686,40 @@
       <c r="AK27" s="16"/>
       <c r="AL27" s="16"/>
       <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
-      <c r="AO27" s="16"/>
-      <c r="AP27" s="16"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="16"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="I28" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="J28" s="16" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>106</v>
-      </c>
+      <c r="M28" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="R28" s="16"/>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
@@ -3249,37 +2741,32 @@
       <c r="AK28" s="16"/>
       <c r="AL28" s="16"/>
       <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
-      <c r="AO28" s="16"/>
-      <c r="AP28" s="16"/>
-      <c r="AQ28" s="16"/>
-      <c r="AR28" s="16"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C29" s="16"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
-      <c r="J29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
-      <c r="P29" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -3303,35 +2790,30 @@
       <c r="AK29" s="16"/>
       <c r="AL29" s="16"/>
       <c r="AM29" s="16"/>
-      <c r="AN29" s="16"/>
-      <c r="AO29" s="16"/>
-      <c r="AP29" s="16"/>
-      <c r="AQ29" s="16"/>
-      <c r="AR29" s="16"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="K30" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="16" t="s">
-        <v>111</v>
-      </c>
+      <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
@@ -3355,38 +2837,25 @@
       <c r="AK30" s="16"/>
       <c r="AL30" s="16"/>
       <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
-      <c r="AO30" s="16"/>
-      <c r="AP30" s="16"/>
-      <c r="AQ30" s="16"/>
-      <c r="AR30" s="16"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="16"/>
-      <c r="I31" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
@@ -3417,47 +2886,42 @@
       <c r="AK31" s="16"/>
       <c r="AL31" s="16"/>
       <c r="AM31" s="16"/>
-      <c r="AN31" s="16"/>
-      <c r="AO31" s="16"/>
-      <c r="AP31" s="16"/>
-      <c r="AQ31" s="16"/>
-      <c r="AR31" s="16"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="I32" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="J32" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>116</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>118</v>
-      </c>
+      <c r="M32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
-      <c r="R32" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
@@ -3479,32 +2943,27 @@
       <c r="AK32" s="16"/>
       <c r="AL32" s="16"/>
       <c r="AM32" s="16"/>
-      <c r="AN32" s="16"/>
-      <c r="AO32" s="16"/>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="16"/>
-      <c r="AR32" s="16"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="17" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
@@ -3533,42 +2992,37 @@
       <c r="AK33" s="16"/>
       <c r="AL33" s="16"/>
       <c r="AM33" s="16"/>
-      <c r="AN33" s="16"/>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="16"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+        <v>104</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
+      <c r="I34" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="J34" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>123</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
@@ -3593,40 +3047,35 @@
       <c r="AK34" s="16"/>
       <c r="AL34" s="16"/>
       <c r="AM34" s="16"/>
-      <c r="AN34" s="16"/>
-      <c r="AO34" s="16"/>
-      <c r="AP34" s="16"/>
-      <c r="AQ34" s="16"/>
-      <c r="AR34" s="16"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="D35" s="16"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="F35" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="I35" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>132</v>
-      </c>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
@@ -3651,33 +3100,28 @@
       <c r="AK35" s="16"/>
       <c r="AL35" s="16"/>
       <c r="AM35" s="16"/>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="16"/>
-      <c r="AR35" s="16"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
@@ -3705,37 +3149,32 @@
       <c r="AK36" s="16"/>
       <c r="AL36" s="16"/>
       <c r="AM36" s="16"/>
-      <c r="AN36" s="16"/>
-      <c r="AO36" s="16"/>
-      <c r="AP36" s="16"/>
-      <c r="AQ36" s="16"/>
-      <c r="AR36" s="16"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="18"/>
+        <v>116</v>
+      </c>
+      <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
+      <c r="K37" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="16" t="s">
-        <v>139</v>
-      </c>
+      <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -3759,35 +3198,30 @@
       <c r="AK37" s="16"/>
       <c r="AL37" s="16"/>
       <c r="AM37" s="16"/>
-      <c r="AN37" s="16"/>
-      <c r="AO37" s="16"/>
-      <c r="AP37" s="16"/>
-      <c r="AQ37" s="16"/>
-      <c r="AR37" s="16"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
+      <c r="K38" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -3811,37 +3245,32 @@
       <c r="AK38" s="16"/>
       <c r="AL38" s="16"/>
       <c r="AM38" s="16"/>
-      <c r="AN38" s="16"/>
-      <c r="AO38" s="16"/>
-      <c r="AP38" s="16"/>
-      <c r="AQ38" s="16"/>
-      <c r="AR38" s="16"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="K39" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="16" t="s">
-        <v>143</v>
-      </c>
+      <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -3865,33 +3294,28 @@
       <c r="AK39" s="16"/>
       <c r="AL39" s="16"/>
       <c r="AM39" s="16"/>
-      <c r="AN39" s="16"/>
-      <c r="AO39" s="16"/>
-      <c r="AP39" s="16"/>
-      <c r="AQ39" s="16"/>
-      <c r="AR39" s="16"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="18"/>
+        <v>123</v>
+      </c>
+      <c r="D40" s="16"/>
       <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="F40" s="16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
@@ -3920,19 +3344,14 @@
       <c r="AK40" s="16"/>
       <c r="AL40" s="16"/>
       <c r="AM40" s="16"/>
-      <c r="AN40" s="16"/>
-      <c r="AO40" s="16"/>
-      <c r="AP40" s="16"/>
-      <c r="AQ40" s="16"/>
-      <c r="AR40" s="16"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="18"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -3968,51 +3387,38 @@
       <c r="AK41" s="16"/>
       <c r="AL41" s="16"/>
       <c r="AM41" s="16"/>
-      <c r="AN41" s="16"/>
-      <c r="AO41" s="16"/>
-      <c r="AP41" s="16"/>
-      <c r="AQ41" s="16"/>
-      <c r="AR41" s="16"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>150</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E42" s="16"/>
       <c r="F42" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>152</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G42" s="16"/>
       <c r="H42" s="16"/>
-      <c r="I42" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="I42" s="21" t="b">
+        <f t="shared" ref="I42:I43" si="1">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="21" t="b">
-        <f t="shared" ref="N42:N43" si="1">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>154</v>
-      </c>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
@@ -4037,51 +3443,38 @@
       <c r="AK42" s="16"/>
       <c r="AL42" s="16"/>
       <c r="AM42" s="16"/>
-      <c r="AN42" s="16"/>
-      <c r="AO42" s="16"/>
-      <c r="AP42" s="16"/>
-      <c r="AQ42" s="16"/>
-      <c r="AR42" s="16"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>158</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E43" s="16"/>
       <c r="F43" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>160</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G43" s="16"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="I43" s="21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="21" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>154</v>
-      </c>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
@@ -4106,47 +3499,34 @@
       <c r="AK43" s="16"/>
       <c r="AL43" s="16"/>
       <c r="AM43" s="16"/>
-      <c r="AN43" s="16"/>
-      <c r="AO43" s="16"/>
-      <c r="AP43" s="16"/>
-      <c r="AQ43" s="16"/>
-      <c r="AR43" s="16"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="H44" s="16"/>
-      <c r="I44" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
@@ -4174,42 +3554,31 @@
       <c r="AK44" s="16"/>
       <c r="AL44" s="16"/>
       <c r="AM44" s="16"/>
-      <c r="AN44" s="16"/>
-      <c r="AO44" s="16"/>
-      <c r="AP44" s="16"/>
-      <c r="AQ44" s="16"/>
-      <c r="AR44" s="16"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>173</v>
+        <v>139</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>175</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G45" s="16"/>
       <c r="H45" s="16"/>
-      <c r="I45" s="16" t="s">
-        <v>176</v>
-      </c>
+      <c r="I45" s="16"/>
       <c r="J45" s="16"/>
-      <c r="K45" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="K45" s="16"/>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
@@ -4238,44 +3607,29 @@
       <c r="AK45" s="16"/>
       <c r="AL45" s="16"/>
       <c r="AM45" s="16"/>
-      <c r="AN45" s="16"/>
-      <c r="AO45" s="16"/>
-      <c r="AP45" s="16"/>
-      <c r="AQ45" s="16"/>
-      <c r="AR45" s="16"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>180</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E46" s="16"/>
       <c r="F46" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>182</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G46" s="16"/>
       <c r="H46" s="16"/>
-      <c r="I46" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>184</v>
-      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
@@ -4304,42 +3658,31 @@
       <c r="AK46" s="16"/>
       <c r="AL46" s="16"/>
       <c r="AM46" s="16"/>
-      <c r="AN46" s="16"/>
-      <c r="AO46" s="16"/>
-      <c r="AP46" s="16"/>
-      <c r="AQ46" s="16"/>
-      <c r="AR46" s="16"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>188</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E47" s="16"/>
       <c r="F47" s="16" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="H47" s="16"/>
-      <c r="I47" s="16" t="s">
-        <v>191</v>
-      </c>
+      <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="K47" s="16"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
@@ -4368,45 +3711,28 @@
       <c r="AK47" s="16"/>
       <c r="AL47" s="16"/>
       <c r="AM47" s="16"/>
-      <c r="AN47" s="16"/>
-      <c r="AO47" s="16"/>
-      <c r="AP47" s="16"/>
-      <c r="AQ47" s="16"/>
-      <c r="AR47" s="16"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>195</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="H48" s="16"/>
-      <c r="I48" s="16" t="s">
-        <v>192</v>
-      </c>
+      <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
@@ -4434,22 +3760,15 @@
       <c r="AK48" s="16"/>
       <c r="AL48" s="16"/>
       <c r="AM48" s="16"/>
-      <c r="AN48" s="16"/>
-      <c r="AO48" s="16"/>
-      <c r="AP48" s="16"/>
-      <c r="AQ48" s="16"/>
-      <c r="AR48" s="16"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -4457,10 +3776,10 @@
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="K49" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
@@ -4488,18 +3807,13 @@
       <c r="AK49" s="16"/>
       <c r="AL49" s="16"/>
       <c r="AM49" s="16"/>
-      <c r="AN49" s="16"/>
-      <c r="AO49" s="16"/>
-      <c r="AP49" s="16"/>
-      <c r="AQ49" s="16"/>
-      <c r="AR49" s="16"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -4509,14 +3823,14 @@
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
+      <c r="K50" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
@@ -4540,18 +3854,13 @@
       <c r="AK50" s="16"/>
       <c r="AL50" s="16"/>
       <c r="AM50" s="16"/>
-      <c r="AN50" s="16"/>
-      <c r="AO50" s="16"/>
-      <c r="AP50" s="16"/>
-      <c r="AQ50" s="16"/>
-      <c r="AR50" s="16"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -4561,14 +3870,14 @@
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
+      <c r="K51" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
-      <c r="P51" s="16" t="s">
-        <v>202</v>
-      </c>
+      <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
@@ -4592,19 +3901,12 @@
       <c r="AK51" s="16"/>
       <c r="AL51" s="16"/>
       <c r="AM51" s="16"/>
-      <c r="AN51" s="16"/>
-      <c r="AO51" s="16"/>
-      <c r="AP51" s="16"/>
-      <c r="AQ51" s="16"/>
-      <c r="AR51" s="16"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>203</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B52" s="17"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -4618,9 +3920,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
-      <c r="P52" s="16" t="s">
-        <v>204</v>
-      </c>
+      <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
       <c r="R52" s="16"/>
       <c r="S52" s="16"/>
@@ -4644,15 +3944,10 @@
       <c r="AK52" s="16"/>
       <c r="AL52" s="16"/>
       <c r="AM52" s="16"/>
-      <c r="AN52" s="16"/>
-      <c r="AO52" s="16"/>
-      <c r="AP52" s="16"/>
-      <c r="AQ52" s="16"/>
-      <c r="AR52" s="16"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="16"/>
@@ -4692,131 +3987,114 @@
       <c r="AK53" s="16"/>
       <c r="AL53" s="16"/>
       <c r="AM53" s="16"/>
-      <c r="AN53" s="16"/>
-      <c r="AO53" s="16"/>
-      <c r="AP53" s="16"/>
-      <c r="AQ53" s="16"/>
-      <c r="AR53" s="16"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="15"/>
       <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16"/>
-      <c r="AC54" s="16"/>
-      <c r="AD54" s="16"/>
-      <c r="AE54" s="16"/>
-      <c r="AF54" s="16"/>
-      <c r="AG54" s="16"/>
-      <c r="AH54" s="16"/>
-      <c r="AI54" s="16"/>
-      <c r="AJ54" s="16"/>
-      <c r="AK54" s="16"/>
-      <c r="AL54" s="16"/>
-      <c r="AM54" s="16"/>
-      <c r="AN54" s="16"/>
-      <c r="AO54" s="16"/>
-      <c r="AP54" s="16"/>
-      <c r="AQ54" s="16"/>
-      <c r="AR54" s="16"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15"/>
+      <c r="A55" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
       <c r="X55" s="16"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="8"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="8"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="16"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="16"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="17" t="s">
-        <v>26</v>
+      <c r="A56" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
-      <c r="L56" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
@@ -4824,7 +4102,9 @@
       <c r="Q56" s="16"/>
       <c r="R56" s="16"/>
       <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
+      <c r="T56" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="U56" s="16"/>
       <c r="V56" s="16"/>
       <c r="W56" s="16"/>
@@ -4844,38 +4124,25 @@
       <c r="AK56" s="16"/>
       <c r="AL56" s="16"/>
       <c r="AM56" s="16"/>
-      <c r="AN56" s="16"/>
-      <c r="AO56" s="16"/>
-      <c r="AP56" s="16"/>
-      <c r="AQ56" s="16"/>
-      <c r="AR56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="22" t="s">
-        <v>58</v>
+      <c r="A57" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="16"/>
-      <c r="I57" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
@@ -4891,9 +4158,7 @@
       <c r="V57" s="16"/>
       <c r="W57" s="16"/>
       <c r="X57" s="16"/>
-      <c r="Y57" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y57" s="16"/>
       <c r="Z57" s="16"/>
       <c r="AA57" s="16"/>
       <c r="AB57" s="16"/>
@@ -4908,38 +4173,31 @@
       <c r="AK57" s="16"/>
       <c r="AL57" s="16"/>
       <c r="AM57" s="16"/>
-      <c r="AN57" s="16"/>
-      <c r="AO57" s="16"/>
-      <c r="AP57" s="16"/>
-      <c r="AQ57" s="16"/>
-      <c r="AR57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="22" t="s">
-        <v>58</v>
+      <c r="A58" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H58" s="16"/>
-      <c r="I58" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
@@ -4950,7 +4208,9 @@
       <c r="Q58" s="16"/>
       <c r="R58" s="16"/>
       <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
+      <c r="T58" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="U58" s="16"/>
       <c r="V58" s="16"/>
       <c r="W58" s="16"/>
@@ -4970,47 +4230,32 @@
       <c r="AK58" s="16"/>
       <c r="AL58" s="16"/>
       <c r="AM58" s="16"/>
-      <c r="AN58" s="16"/>
-      <c r="AO58" s="16"/>
-      <c r="AP58" s="16"/>
-      <c r="AQ58" s="16"/>
-      <c r="AR58" s="16"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
       <c r="H59" s="16"/>
-      <c r="I59" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="I59" s="16"/>
+      <c r="J59" s="20"/>
       <c r="K59" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>48</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
@@ -5023,9 +4268,7 @@
       <c r="V59" s="16"/>
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
-      <c r="Y59" s="16" t="s">
-        <v>214</v>
-      </c>
+      <c r="Y59" s="16"/>
       <c r="Z59" s="16"/>
       <c r="AA59" s="16"/>
       <c r="AB59" s="16"/>
@@ -5040,49 +4283,32 @@
       <c r="AK59" s="16"/>
       <c r="AL59" s="16"/>
       <c r="AM59" s="16"/>
-      <c r="AN59" s="16"/>
-      <c r="AO59" s="16"/>
-      <c r="AP59" s="16"/>
-      <c r="AQ59" s="16"/>
-      <c r="AR59" s="16"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="17" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>97</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
       <c r="H60" s="16"/>
-      <c r="I60" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="16" t="s">
-        <v>216</v>
-      </c>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
@@ -5106,38 +4332,27 @@
       <c r="AK60" s="16"/>
       <c r="AL60" s="16"/>
       <c r="AM60" s="16"/>
-      <c r="AN60" s="16"/>
-      <c r="AO60" s="16"/>
-      <c r="AP60" s="16"/>
-      <c r="AQ60" s="16"/>
-      <c r="AR60" s="16"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>190</v>
+        <v>144</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="H61" s="16"/>
-      <c r="I61" s="16" t="s">
-        <v>191</v>
-      </c>
+      <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
@@ -5168,43 +4383,26 @@
       <c r="AK61" s="16"/>
       <c r="AL61" s="16"/>
       <c r="AM61" s="16"/>
-      <c r="AN61" s="16"/>
-      <c r="AO61" s="16"/>
-      <c r="AP61" s="16"/>
-      <c r="AQ61" s="16"/>
-      <c r="AR61" s="16"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>196</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
       <c r="H62" s="16"/>
-      <c r="I62" s="16" t="s">
-        <v>192</v>
-      </c>
+      <c r="I62" s="16"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="K62" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L62" s="16"/>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
@@ -5232,18 +4430,13 @@
       <c r="AK62" s="16"/>
       <c r="AL62" s="16"/>
       <c r="AM62" s="16"/>
-      <c r="AN62" s="16"/>
-      <c r="AO62" s="16"/>
-      <c r="AP62" s="16"/>
-      <c r="AQ62" s="16"/>
-      <c r="AR62" s="16"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
@@ -5253,14 +4446,14 @@
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
+      <c r="K63" s="16" t="s">
+        <v>164</v>
+      </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="16" t="s">
-        <v>218</v>
-      </c>
+      <c r="P63" s="16"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
       <c r="S63" s="16"/>
@@ -5284,24 +4477,25 @@
       <c r="AK63" s="16"/>
       <c r="AL63" s="16"/>
       <c r="AM63" s="16"/>
-      <c r="AN63" s="16"/>
-      <c r="AO63" s="16"/>
-      <c r="AP63" s="16"/>
-      <c r="AQ63" s="16"/>
-      <c r="AR63" s="16"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
+      <c r="G64" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -5310,9 +4504,7 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
-      <c r="P64" s="16" t="s">
-        <v>220</v>
-      </c>
+      <c r="P64" s="16"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
@@ -5336,43 +4528,26 @@
       <c r="AK64" s="16"/>
       <c r="AL64" s="16"/>
       <c r="AM64" s="16"/>
-      <c r="AN64" s="16"/>
-      <c r="AO64" s="16"/>
-      <c r="AP64" s="16"/>
-      <c r="AQ64" s="16"/>
-      <c r="AR64" s="16"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
       <c r="H65" s="16"/>
-      <c r="I65" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="I65" s="16"/>
       <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="K65" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L65" s="16"/>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
@@ -5400,18 +4575,13 @@
       <c r="AK65" s="16"/>
       <c r="AL65" s="16"/>
       <c r="AM65" s="16"/>
-      <c r="AN65" s="16"/>
-      <c r="AO65" s="16"/>
-      <c r="AP65" s="16"/>
-      <c r="AQ65" s="16"/>
-      <c r="AR65" s="16"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -5421,14 +4591,14 @@
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
+      <c r="K66" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
-      <c r="P66" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="P66" s="16"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
       <c r="S66" s="16"/>
@@ -5452,18 +4622,13 @@
       <c r="AK66" s="16"/>
       <c r="AL66" s="16"/>
       <c r="AM66" s="16"/>
-      <c r="AN66" s="16"/>
-      <c r="AO66" s="16"/>
-      <c r="AP66" s="16"/>
-      <c r="AQ66" s="16"/>
-      <c r="AR66" s="16"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -5473,14 +4638,14 @@
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
+      <c r="K67" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
-      <c r="P67" s="16" t="s">
-        <v>202</v>
-      </c>
+      <c r="P67" s="16"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
       <c r="S67" s="16"/>
@@ -5504,19 +4669,12 @@
       <c r="AK67" s="16"/>
       <c r="AL67" s="16"/>
       <c r="AM67" s="16"/>
-      <c r="AN67" s="16"/>
-      <c r="AO67" s="16"/>
-      <c r="AP67" s="16"/>
-      <c r="AQ67" s="16"/>
-      <c r="AR67" s="16"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>203</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B68" s="17"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
@@ -5530,9 +4688,7 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
-      <c r="P68" s="16" t="s">
-        <v>204</v>
-      </c>
+      <c r="P68" s="16"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="16"/>
       <c r="S68" s="16"/>
@@ -5556,15 +4712,10 @@
       <c r="AK68" s="16"/>
       <c r="AL68" s="16"/>
       <c r="AM68" s="16"/>
-      <c r="AN68" s="16"/>
-      <c r="AO68" s="16"/>
-      <c r="AP68" s="16"/>
-      <c r="AQ68" s="16"/>
-      <c r="AR68" s="16"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B69" s="17"/>
       <c r="C69" s="16"/>
@@ -5604,60 +4755,8 @@
       <c r="AK69" s="16"/>
       <c r="AL69" s="16"/>
       <c r="AM69" s="16"/>
-      <c r="AN69" s="16"/>
-      <c r="AO69" s="16"/>
-      <c r="AP69" s="16"/>
-      <c r="AQ69" s="16"/>
-      <c r="AR69" s="16"/>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
-      <c r="AD70" s="16"/>
-      <c r="AE70" s="16"/>
-      <c r="AF70" s="16"/>
-      <c r="AG70" s="16"/>
-      <c r="AH70" s="16"/>
-      <c r="AI70" s="16"/>
-      <c r="AJ70" s="16"/>
-      <c r="AK70" s="16"/>
-      <c r="AL70" s="16"/>
-      <c r="AM70" s="16"/>
-      <c r="AN70" s="16"/>
-      <c r="AO70" s="16"/>
-      <c r="AP70" s="16"/>
-      <c r="AQ70" s="16"/>
-      <c r="AR70" s="16"/>
-    </row>
+    </row>
+    <row r="70" ht="14.25" customHeight="1"/>
     <row r="71" ht="14.25" customHeight="1"/>
     <row r="72" ht="14.25" customHeight="1"/>
     <row r="73" ht="14.25" customHeight="1"/>
@@ -6587,7 +5686,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6607,7 +5705,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.14"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
     <col customWidth="1" min="3" max="3" width="29.0"/>
     <col customWidth="1" min="4" max="4" width="36.29"/>
     <col customWidth="1" min="5" max="5" width="27.29"/>
@@ -6619,32 +5716,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -6665,30 +5762,30 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>226</v>
+      <c r="A2" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="16" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -6709,30 +5806,30 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>233</v>
+      <c r="A3" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="16" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6753,30 +5850,30 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>241</v>
+      <c r="A4" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="16" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -6797,30 +5894,30 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>248</v>
+      <c r="A5" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="16" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6841,30 +5938,30 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>255</v>
+      <c r="A6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="16" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -6885,30 +5982,30 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>262</v>
+      <c r="A7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="16" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -6929,30 +6026,30 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>269</v>
+      <c r="A8" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -6974,17 +6071,17 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+        <v>221</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
       <c r="I9" s="16"/>
@@ -7008,29 +6105,29 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>280</v>
+        <v>224</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="16" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -7052,29 +6149,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>287</v>
+        <v>224</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -7095,30 +6192,30 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>294</v>
+      <c r="A12" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="16" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -7139,30 +6236,30 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>300</v>
+      <c r="A13" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="16" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -7184,29 +6281,29 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>307</v>
+        <v>60</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -7228,29 +6325,29 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>313</v>
+        <v>60</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -7271,30 +6368,30 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>226</v>
+      <c r="A16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="16" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -7315,30 +6412,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>320</v>
+      <c r="A17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -7360,29 +6457,29 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>327</v>
+        <v>67</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -7404,29 +6501,29 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>335</v>
+        <v>67</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>282</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="16" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -7447,30 +6544,30 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>341</v>
+      <c r="A20" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -7490,182 +6587,10 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-    </row>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
     <row r="25" ht="14.25" customHeight="1"/>
     <row r="26" ht="14.25" customHeight="1"/>
     <row r="27" ht="14.25" customHeight="1"/>
@@ -8638,10 +7563,6 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -8672,19 +7593,19 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -8708,21 +7629,21 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>367</v>
+      <c r="A2" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="C2" s="31" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-06-14_04-11</v>
+        <v>2023-08-30_02-36</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
